--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\Berlin70\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="11865"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cover" sheetId="1" r:id="rId1"/>
+    <sheet name="1. FOGOffset&amp;MSG" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,12 +25,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>HOSTNAME</t>
-  </si>
-  <si>
-    <t>DSA: 155D656</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+  <si>
+    <t>get the MicStabilityFOGOffset to be reference</t>
+  </si>
+  <si>
+    <t>combine it with MSG</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>FinalBackMicStabilityFOGOffset</t>
+  </si>
+  <si>
+    <t>FinalFrontMicStabilityFOGOffset</t>
+  </si>
+  <si>
+    <t>1800801007</t>
+  </si>
+  <si>
+    <t>MicStabEXPOffAGCICFG</t>
+  </si>
+  <si>
+    <t>1800801005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from ME TPI reports, pick out the stability failed HI, retest the TPI. </t>
+  </si>
+  <si>
+    <t>then, keep the HI no moved, do the DFS</t>
   </si>
 </sst>
 </file>
@@ -65,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,6 +109,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>560571</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>65952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAC9965-D57E-416A-9716-19D0C3FEAEF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="11228571" cy="5780952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,26 +457,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C12" s="2">
+        <v>1800801007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
     <sheet name="1. FOGOffset&amp;MSG" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>get the MicStabilityFOGOffset to be reference</t>
   </si>
@@ -55,16 +56,75 @@
   </si>
   <si>
     <t>then, keep the HI no moved, do the DFS</t>
+  </si>
+  <si>
+    <t>1800801010</t>
+  </si>
+  <si>
+    <t>VA877-DW stability failure</t>
+  </si>
+  <si>
+    <t>1800801240</t>
+  </si>
+  <si>
+    <t>1800801239</t>
+  </si>
+  <si>
+    <t>change the jig to Delhi, the result is the same</t>
+  </si>
+  <si>
+    <t>so jig is not the root cause</t>
+  </si>
+  <si>
+    <t>and the unstable frequency can match the MSG_DFS</t>
+  </si>
+  <si>
+    <t>#240: 3981 or 5012</t>
+  </si>
+  <si>
+    <t>#239: 3981 or 5012</t>
+  </si>
+  <si>
+    <t>do the MicStabilityFOGOffset and MSG_DFS have connection?</t>
+  </si>
+  <si>
+    <t>it seems their offset are same, but the MSG_DFS is different.</t>
+  </si>
+  <si>
+    <t>so this offset is for a reference when HI is stable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,10 +150,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,21 +181,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>560571</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>65952</xdr:rowOff>
+      <xdr:colOff>379603</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>18333</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAAC9965-D57E-416A-9716-19D0C3FEAEF5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -148,11 +212,177 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="3238500"/>
-          <a:ext cx="11228571" cy="5780952"/>
+          <a:ext cx="11171428" cy="5733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>398651</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>46905</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11811000"/>
+          <a:ext cx="11190476" cy="5761905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="18859500"/>
+          <a:ext cx="8810625" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="609600" y="24765000"/>
+          <a:ext cx="8810625" cy="5857875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -474,86 +704,99 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D17"/>
+  <dimension ref="B2:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="P144" sqref="P144:P145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C9" s="1">
+        <v>4</v>
+      </c>
       <c r="D9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>1800801007</v>
       </c>
-      <c r="D12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
       <c r="D13" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
@@ -561,24 +804,276 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C17" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B50" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C54" s="4">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C58" s="1">
+        <v>4</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C102" s="4"/>
+      <c r="D102" s="5"/>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q103" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="P104" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R104" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="P105" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>4</v>
+      </c>
+      <c r="R105" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C106" s="1"/>
+      <c r="P106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="P107" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q107" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C110" s="1"/>
+    </row>
+    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P137" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q137" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P138" s="2">
+        <v>1800801007</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P139" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q139" s="1">
+        <v>4</v>
+      </c>
+      <c r="R139" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P140" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q140" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P141" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
+      <c r="P144" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
+      <c r="P145" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\Berlin70\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -130,12 +130,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -150,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -158,6 +164,7 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -195,7 +202,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -239,7 +246,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -283,7 +290,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -344,7 +351,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -704,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R145"/>
+  <dimension ref="A2:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="P144" sqref="P144:P145"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,27 +723,28 @@
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -744,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -755,7 +763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -766,7 +774,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -774,7 +782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <v>1800801007</v>
       </c>
@@ -785,7 +793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -796,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
@@ -804,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -826,12 +834,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
       <c r="B50" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
@@ -842,7 +851,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
@@ -853,7 +862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C54" s="4">
         <v>1</v>
       </c>
@@ -864,7 +873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
@@ -872,7 +881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
@@ -880,7 +889,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C58" s="1">
         <v>4</v>
       </c>
@@ -888,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
@@ -896,7 +905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
@@ -904,7 +913,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C62" s="1">
         <v>1</v>
       </c>

--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="P144" sqref="P144:P145"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\Berlin70\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
   <si>
     <t>get the MicStabilityFOGOffset to be reference</t>
   </si>
@@ -92,12 +92,18 @@
   </si>
   <si>
     <t>so this offset is for a reference when HI is stable</t>
+  </si>
+  <si>
+    <t>LS977-DW stability failure</t>
+  </si>
+  <si>
+    <t>1458</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -202,7 +208,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -246,7 +252,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -290,7 +296,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -351,7 +357,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -390,6 +396,50 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>427222</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>8809</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7228450F-357D-4643-A3AB-CB3CBB603ADD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30861000"/>
+          <a:ext cx="11219047" cy="5723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -711,10 +761,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R145"/>
+  <dimension ref="A2:V173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
+      <selection activeCell="X180" sqref="X180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1116,75 @@
     <row r="145" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P145" s="3" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A162" s="7"/>
+      <c r="B162" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U163" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V163" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U164" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V164" s="2"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U165" s="4">
+        <v>3</v>
+      </c>
+      <c r="V165" s="5"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U167" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V167" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U168" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="V168" s="2"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U169" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U171" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V171" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U172" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V172" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="U173" s="1">
+        <v>1</v>
+      </c>
+      <c r="V173">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="6510" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>get the MicStabilityFOGOffset to be reference</t>
   </si>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>1458</t>
+  </si>
+  <si>
+    <t>2564</t>
+  </si>
+  <si>
+    <t>0037</t>
+  </si>
+  <si>
+    <t>using the Delhi Jig</t>
+  </si>
+  <si>
+    <t>check if it can improve the performance</t>
+  </si>
+  <si>
+    <t>Delhi Jig</t>
   </si>
 </sst>
 </file>
@@ -408,17 +423,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>427222</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>8809</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>143438</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7228450F-357D-4643-A3AB-CB3CBB603ADD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EF32A3-9DB9-4BCE-8D50-B60989C423BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,7 +450,101 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="30861000"/>
-          <a:ext cx="11219047" cy="5723809"/>
+          <a:ext cx="11944350" cy="6048938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>417699</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>170738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0BEE72-A8B3-481D-B3DE-3C6FDF01D947}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="37147500"/>
+          <a:ext cx="11209524" cy="5695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>4424</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49EFFED-F985-4932-B38D-52E768BB383E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="43434000"/>
+          <a:ext cx="11868150" cy="5719424"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,10 +870,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V173"/>
+  <dimension ref="A2:X239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A188" workbookViewId="0">
-      <selection activeCell="X180" sqref="X180"/>
+    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="W246" sqref="W246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1118,13 +1227,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="7"/>
       <c r="B162" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U163" s="1" t="s">
         <v>2</v>
       </c>
@@ -1132,19 +1241,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U164" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V164" s="2"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V164" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W164" s="2">
+        <v>3568</v>
+      </c>
+      <c r="X164" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U165" s="4">
         <v>3</v>
       </c>
-      <c r="V165" s="5"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V165" s="5">
+        <v>0</v>
+      </c>
+      <c r="W165">
+        <v>2</v>
+      </c>
+      <c r="X165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U167" s="1" t="s">
         <v>2</v>
       </c>
@@ -1152,18 +1277,35 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U168" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="V168" s="2"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V168" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="W168" s="2">
+        <v>3568</v>
+      </c>
+      <c r="X168" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U169" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="V169">
+        <v>2</v>
+      </c>
+      <c r="W169">
+        <v>4</v>
+      </c>
+      <c r="X169">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U171" s="1" t="s">
         <v>2</v>
       </c>
@@ -1171,20 +1313,138 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U172" s="2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="V172" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="W172" s="2">
+        <v>3568</v>
+      </c>
+      <c r="X172" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="U173" s="1">
         <v>1</v>
       </c>
       <c r="V173">
         <v>1</v>
+      </c>
+      <c r="W173">
+        <v>1</v>
+      </c>
+      <c r="X173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U197" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="V198" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="200" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U200" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V200" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U201" s="2">
+        <v>3568</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="202" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U202" s="4">
+        <v>2</v>
+      </c>
+      <c r="V202" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U204" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V204" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U205" s="2">
+        <v>3568</v>
+      </c>
+      <c r="V205" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="206" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U206" s="1">
+        <v>4</v>
+      </c>
+      <c r="V206">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="233" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U233" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V233" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="234" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U234" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V234" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="235" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U235" s="4">
+        <v>0</v>
+      </c>
+      <c r="V235" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U237" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="V237" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U238" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V238" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="239" spans="21:22" x14ac:dyDescent="0.25">
+      <c r="U239" s="1">
+        <v>2</v>
+      </c>
+      <c r="V239">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\Berlin70\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\dfs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="1"/>
+    <workbookView xWindow="7440" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
     <sheet name="1. FOGOffset&amp;MSG" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="2. RS_vs_BT skin" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
   <si>
     <t>get the MicStabilityFOGOffset to be reference</t>
   </si>
@@ -113,24 +113,63 @@
   </si>
   <si>
     <t>Delhi Jig</t>
+  </si>
+  <si>
+    <t>prove it again: jig is not the root cause</t>
+  </si>
+  <si>
+    <t>compare the stability of Resound and beltone skin</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>P5#458</t>
+  </si>
+  <si>
+    <t>P6#240</t>
+  </si>
+  <si>
+    <t>P6#239</t>
+  </si>
+  <si>
+    <t>P6#237</t>
+  </si>
+  <si>
+    <t>P6#238</t>
+  </si>
+  <si>
+    <t>P6#236</t>
+  </si>
+  <si>
+    <t>P6#564</t>
+  </si>
+  <si>
+    <t>P6#568</t>
+  </si>
+  <si>
+    <t>P6#037</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,16 +177,38 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -177,18 +238,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,8 +427,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -513,8 +576,8 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>258</xdr:row>
-      <xdr:rowOff>4424</xdr:rowOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>118724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -549,6 +612,121 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4781550"/>
+          <a:ext cx="6467475" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="800100"/>
+          <a:ext cx="6467475" cy="3743325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -859,51 +1037,73 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:X239"/>
+  <dimension ref="A2:X242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="W246" sqref="W246"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D157" sqref="D157"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s">
+    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -911,7 +1111,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -922,7 +1122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -933,7 +1133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -941,7 +1141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="2">
         <v>1800801007</v>
       </c>
@@ -952,7 +1152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -963,7 +1163,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
@@ -971,7 +1171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -993,46 +1193,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+    </row>
+    <row r="53" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J53" t="s">
+      <c r="I53" s="7"/>
+      <c r="J53" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+    </row>
+    <row r="54" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1</v>
       </c>
       <c r="D54" s="5">
         <v>0</v>
       </c>
-      <c r="J54" t="s">
+      <c r="I54" s="7"/>
+      <c r="J54" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
@@ -1040,7 +1252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
@@ -1048,7 +1260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1">
         <v>4</v>
       </c>
@@ -1056,7 +1268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
@@ -1064,7 +1276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
@@ -1072,7 +1284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1">
         <v>1</v>
       </c>
@@ -1080,36 +1292,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="3" t="s">
+    <row r="95" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B95" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
+      <c r="C95" s="9"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="7"/>
+    </row>
+    <row r="96" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B99" s="3" t="s">
+      <c r="D96" s="7"/>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+    </row>
+    <row r="99" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B99" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
       <c r="P103" s="1" t="s">
         <v>2</v>
       </c>
@@ -1117,7 +1348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="P104" s="2" t="s">
@@ -1130,7 +1361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="P105" s="1">
@@ -1143,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C106" s="1"/>
       <c r="P106" s="2" t="s">
         <v>12</v>
@@ -1152,7 +1383,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
       <c r="P107" s="4">
         <v>1</v>
       </c>
@@ -1160,18 +1391,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C110" s="1"/>
     </row>
-    <row r="137" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="137" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P137" s="1" t="s">
         <v>2</v>
       </c>
@@ -1179,7 +1410,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="138" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P138" s="2">
         <v>1800801007</v>
       </c>
@@ -1190,7 +1421,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="139" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P139" s="1">
         <v>4</v>
       </c>
@@ -1201,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="140" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P140" s="2" t="s">
         <v>12</v>
       </c>
@@ -1209,7 +1440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="16:18" x14ac:dyDescent="0.25">
+    <row r="141" spans="16:18" x14ac:dyDescent="0.2">
       <c r="P141" s="1">
         <v>4</v>
       </c>
@@ -1217,23 +1448,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="16:18" x14ac:dyDescent="0.25">
-      <c r="P144" s="3" t="s">
+    <row r="144" spans="16:18" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="P144" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P145" s="3" t="s">
+    <row r="145" spans="16:16" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="P145" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A162" s="7"/>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A162" s="6"/>
       <c r="B162" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U163" s="1" t="s">
         <v>2</v>
       </c>
@@ -1241,7 +1472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U164" s="2" t="s">
         <v>23</v>
       </c>
@@ -1255,7 +1486,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U165" s="4">
         <v>3</v>
       </c>
@@ -1269,7 +1500,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U167" s="1" t="s">
         <v>2</v>
       </c>
@@ -1277,7 +1508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U168" s="2" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U169" s="1">
         <v>4</v>
       </c>
@@ -1305,7 +1536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U171" s="1" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U172" s="2" t="s">
         <v>23</v>
       </c>
@@ -1327,7 +1558,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="U173" s="1">
         <v>1</v>
       </c>
@@ -1341,17 +1572,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="197" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U197" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="198" spans="21:22" x14ac:dyDescent="0.2">
       <c r="V198" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="200" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U200" s="1" t="s">
         <v>2</v>
       </c>
@@ -1359,7 +1590,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="201" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U201" s="2">
         <v>3568</v>
       </c>
@@ -1367,7 +1598,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="202" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U202" s="4">
         <v>2</v>
       </c>
@@ -1375,7 +1606,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="204" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U204" s="1" t="s">
         <v>2</v>
       </c>
@@ -1383,7 +1614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="205" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U205" s="2">
         <v>3568</v>
       </c>
@@ -1391,7 +1622,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="206" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U206" s="1">
         <v>4</v>
       </c>
@@ -1399,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="233" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U233" s="1" t="s">
         <v>2</v>
       </c>
@@ -1407,7 +1638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="234" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U234" s="2" t="s">
         <v>24</v>
       </c>
@@ -1415,7 +1646,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="235" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U235" s="4">
         <v>0</v>
       </c>
@@ -1423,7 +1654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="237" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U237" s="1" t="s">
         <v>2</v>
       </c>
@@ -1431,7 +1662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="238" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U238" s="2" t="s">
         <v>24</v>
       </c>
@@ -1439,7 +1670,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="21:22" x14ac:dyDescent="0.25">
+    <row r="239" spans="21:22" x14ac:dyDescent="0.2">
       <c r="U239" s="1">
         <v>2</v>
       </c>
@@ -1447,7 +1678,13 @@
         <v>2</v>
       </c>
     </row>
+    <row r="242" spans="22:22" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="V242" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -1456,12 +1693,169 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:U36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K52" sqref="K52"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="O7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>3</v>
+      </c>
+      <c r="R8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="O33" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" t="s">
+        <v>37</v>
+      </c>
+      <c r="U33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>4</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+      <c r="U34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="O35" t="s">
+        <v>32</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>40</v>
+      </c>
+      <c r="R35" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="15:21" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>4</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Berlin70/Berlin70.xlsx
+++ b/Berlin70/Berlin70.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\dfs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chache\Documents\GitHub\DFS\Berlin70\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7440" yWindow="0" windowWidth="27870" windowHeight="11865" activeTab="2"/>
+    <workbookView xWindow="8370" yWindow="0" windowWidth="16830" windowHeight="11865" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="cover" sheetId="1" r:id="rId1"/>
     <sheet name="1. FOGOffset&amp;MSG" sheetId="2" r:id="rId2"/>
     <sheet name="2. RS_vs_BT skin" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="71">
   <si>
     <t>get the MicStabilityFOGOffset to be reference</t>
   </si>
@@ -152,24 +152,111 @@
   </si>
   <si>
     <t>P6#037</t>
+  </si>
+  <si>
+    <t>replace failed BT HI skin with RS</t>
+  </si>
+  <si>
+    <t>replace failed BT HI skin with passed RS</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>#037_original</t>
+  </si>
+  <si>
+    <t>#037_with BT skin</t>
+  </si>
+  <si>
+    <t>#240_original</t>
+  </si>
+  <si>
+    <t>#240_with RS skin</t>
+  </si>
+  <si>
+    <t>replace with this RS skin, stability become better obviously</t>
+  </si>
+  <si>
+    <t>#037_recover</t>
+  </si>
+  <si>
+    <t>#240_recover</t>
+  </si>
+  <si>
+    <t>peak frequency:</t>
+  </si>
+  <si>
+    <t>3k-4k Hz</t>
+  </si>
+  <si>
+    <t>4k-5k Hz</t>
+  </si>
+  <si>
+    <t>#037_replace 2</t>
+  </si>
+  <si>
+    <t>#240_replace 2</t>
+  </si>
+  <si>
+    <t>#037_replace 3</t>
+  </si>
+  <si>
+    <t>#037_replace 4</t>
+  </si>
+  <si>
+    <t>#240_replace 3</t>
+  </si>
+  <si>
+    <t>#037_recover_2</t>
+  </si>
+  <si>
+    <t>first time, replace the skin with BT, the stability go worse a little bit</t>
+  </si>
+  <si>
+    <t>then recover to RS, stability return ok</t>
+  </si>
+  <si>
+    <t>replace to BT again, and repeat the disassembly, the performance not good</t>
+  </si>
+  <si>
+    <t>after several time skin replacement, once recover to RS skin, stability is good</t>
+  </si>
+  <si>
+    <t>recover to BT skin, stability problem seems fixed, the peak frequency shift</t>
+  </si>
+  <si>
+    <t>replace to RS several times, MSG keeps higher than BT</t>
+  </si>
+  <si>
+    <t>recover to BT again, the MSG lower</t>
+  </si>
+  <si>
+    <t>For these two housing, RS is better (RS:+1=2p)</t>
+  </si>
+  <si>
+    <t>For these two housing, RS is better ( RS:+1=1p)</t>
+  </si>
+  <si>
+    <t>#240_recover_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,14 +264,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +279,7 @@
       <b/>
       <sz val="16"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -200,19 +287,42 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,8 +335,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -234,11 +350,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -249,9 +445,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -286,7 +501,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C5A6508C-2481-46C2-B909-4183F53BD453}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -330,7 +545,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0038D675-99FB-4EE8-ABD3-551BB4B82678}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -374,7 +589,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BBB73310-58B4-4B0A-A976-CF3EEDA0B2FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -435,7 +650,7 @@
         <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{43562664-F9CE-4AB5-B073-9B03693E1BA5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -496,7 +711,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EF32A3-9DB9-4BCE-8D50-B60989C423BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49EF32A3-9DB9-4BCE-8D50-B60989C423BF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -540,7 +755,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0BEE72-A8B3-481D-B3DE-3C6FDF01D947}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6B0BEE72-A8B3-481D-B3DE-3C6FDF01D947}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -584,7 +799,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E49EFFED-F985-4932-B38D-52E768BB383E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E49EFFED-F985-4932-B38D-52E768BB383E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -625,24 +840,100 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="647700"/>
+          <a:ext cx="7981950" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6553200"/>
+          <a:ext cx="7981950" cy="5819775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -656,8 +947,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4781550"/>
-          <a:ext cx="6467475" cy="3743325"/>
+          <a:off x="7820025" y="28994100"/>
+          <a:ext cx="7972425" cy="5810250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -680,24 +971,24 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>121</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPr id="23" name="Picture 22"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -711,8 +1002,63 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="800100"/>
-          <a:ext cx="6467475" cy="3743325"/>
+          <a:off x="0" y="23317200"/>
+          <a:ext cx="7972425" cy="5810250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7820025" y="23317200"/>
+          <a:ext cx="7972425" cy="5810250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1037,9 +1383,9 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1052,17 +1398,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X242"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D157" sqref="D157"/>
+    <sheetView topLeftCell="B140" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="21">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -1073,7 +1419,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="21">
       <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1429,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="21">
       <c r="B4" s="7" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1439,7 @@
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="21">
       <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
@@ -1103,7 +1449,7 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1111,7 +1457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="C9" s="1">
         <v>4</v>
       </c>
@@ -1133,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="C11" s="1" t="s">
         <v>2</v>
       </c>
@@ -1141,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="C12" s="2">
         <v>1800801007</v>
       </c>
@@ -1152,7 +1498,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -1163,7 +1509,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="C15" s="1" t="s">
         <v>2</v>
       </c>
@@ -1171,7 +1517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="C16" s="2" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1528,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:5">
       <c r="C17" s="1">
         <v>1</v>
       </c>
@@ -1193,13 +1539,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="21">
       <c r="A50" s="6"/>
       <c r="B50" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="21">
       <c r="C52" s="1" t="s">
         <v>2</v>
       </c>
@@ -1214,7 +1560,7 @@
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
     </row>
-    <row r="53" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="21">
       <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
@@ -1229,7 +1575,7 @@
       <c r="L53" s="7"/>
       <c r="M53" s="7"/>
     </row>
-    <row r="54" spans="1:13" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="21">
       <c r="C54" s="4">
         <v>1</v>
       </c>
@@ -1244,7 +1590,7 @@
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13">
       <c r="C56" s="1" t="s">
         <v>2</v>
       </c>
@@ -1252,7 +1598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13">
       <c r="C57" s="2" t="s">
         <v>12</v>
       </c>
@@ -1260,7 +1606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13">
       <c r="C58" s="1">
         <v>4</v>
       </c>
@@ -1268,7 +1614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13">
       <c r="C60" s="1" t="s">
         <v>2</v>
       </c>
@@ -1276,7 +1622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13">
       <c r="C61" s="2" t="s">
         <v>12</v>
       </c>
@@ -1284,7 +1630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13">
       <c r="C62" s="1">
         <v>1</v>
       </c>
@@ -1292,7 +1638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="21">
       <c r="B95" s="9" t="s">
         <v>14</v>
       </c>
@@ -1300,7 +1646,7 @@
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
     </row>
-    <row r="96" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="21">
       <c r="B96" s="9"/>
       <c r="C96" s="9" t="s">
         <v>15</v>
@@ -1308,19 +1654,19 @@
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
     </row>
-    <row r="97" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:18" ht="21">
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
     </row>
-    <row r="98" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:18" ht="21">
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
     </row>
-    <row r="99" spans="2:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:18" ht="21">
       <c r="B99" s="9" t="s">
         <v>19</v>
       </c>
@@ -1328,19 +1674,19 @@
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
     </row>
-    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:18">
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:18">
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
     </row>
-    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:18">
       <c r="C102" s="4"/>
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:18">
       <c r="P103" s="1" t="s">
         <v>2</v>
       </c>
@@ -1348,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:18">
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
       <c r="P104" s="2" t="s">
@@ -1361,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:18">
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="P105" s="1">
@@ -1374,7 +1720,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:18">
       <c r="C106" s="1"/>
       <c r="P106" s="2" t="s">
         <v>12</v>
@@ -1383,7 +1729,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:18">
       <c r="P107" s="4">
         <v>1</v>
       </c>
@@ -1391,18 +1737,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:18">
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:18">
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:18">
       <c r="C110" s="1"/>
     </row>
-    <row r="137" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="137" spans="16:18">
       <c r="P137" s="1" t="s">
         <v>2</v>
       </c>
@@ -1410,7 +1756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="138" spans="16:18">
       <c r="P138" s="2">
         <v>1800801007</v>
       </c>
@@ -1421,7 +1767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="139" spans="16:18">
       <c r="P139" s="1">
         <v>4</v>
       </c>
@@ -1432,7 +1778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="140" spans="16:18">
       <c r="P140" s="2" t="s">
         <v>12</v>
       </c>
@@ -1440,7 +1786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="16:18" x14ac:dyDescent="0.2">
+    <row r="141" spans="16:18">
       <c r="P141" s="1">
         <v>4</v>
       </c>
@@ -1448,23 +1794,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="144" spans="16:18" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="144" spans="16:18" ht="21">
       <c r="P144" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="145" spans="16:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="145" spans="16:16" ht="21">
       <c r="P145" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24">
       <c r="A162" s="6"/>
       <c r="B162" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24">
       <c r="U163" s="1" t="s">
         <v>2</v>
       </c>
@@ -1472,7 +1818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24">
       <c r="U164" s="2" t="s">
         <v>23</v>
       </c>
@@ -1486,7 +1832,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24">
       <c r="U165" s="4">
         <v>3</v>
       </c>
@@ -1500,7 +1846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24">
       <c r="U167" s="1" t="s">
         <v>2</v>
       </c>
@@ -1508,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24">
       <c r="U168" s="2" t="s">
         <v>23</v>
       </c>
@@ -1522,7 +1868,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24">
       <c r="U169" s="1">
         <v>4</v>
       </c>
@@ -1536,7 +1882,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24">
       <c r="U171" s="1" t="s">
         <v>2</v>
       </c>
@@ -1544,7 +1890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24">
       <c r="U172" s="2" t="s">
         <v>23</v>
       </c>
@@ -1558,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24">
       <c r="U173" s="1">
         <v>1</v>
       </c>
@@ -1572,17 +1918,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="197" spans="21:22">
       <c r="U197" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="198" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="198" spans="21:22">
       <c r="V198" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="200" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="200" spans="21:22">
       <c r="U200" s="1" t="s">
         <v>2</v>
       </c>
@@ -1590,7 +1936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="201" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="201" spans="21:22">
       <c r="U201" s="2">
         <v>3568</v>
       </c>
@@ -1598,7 +1944,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="202" spans="21:22">
       <c r="U202" s="4">
         <v>2</v>
       </c>
@@ -1606,7 +1952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="204" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="204" spans="21:22">
       <c r="U204" s="1" t="s">
         <v>2</v>
       </c>
@@ -1614,7 +1960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="205" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="205" spans="21:22">
       <c r="U205" s="2">
         <v>3568</v>
       </c>
@@ -1622,7 +1968,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="206" spans="21:22">
       <c r="U206" s="1">
         <v>4</v>
       </c>
@@ -1630,7 +1976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="233" spans="21:22">
       <c r="U233" s="1" t="s">
         <v>2</v>
       </c>
@@ -1638,7 +1984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="234" spans="21:22">
       <c r="U234" s="2" t="s">
         <v>24</v>
       </c>
@@ -1646,7 +1992,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="235" spans="21:22">
       <c r="U235" s="4">
         <v>0</v>
       </c>
@@ -1654,7 +2000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="237" spans="21:22">
       <c r="U237" s="1" t="s">
         <v>2</v>
       </c>
@@ -1662,7 +2008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="238" spans="21:22">
       <c r="U238" s="2" t="s">
         <v>24</v>
       </c>
@@ -1670,7 +2016,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="21:22" x14ac:dyDescent="0.2">
+    <row r="239" spans="21:22">
       <c r="U239" s="1">
         <v>2</v>
       </c>
@@ -1678,7 +2024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="22:22" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="242" spans="22:22" ht="21">
       <c r="V242" s="7" t="s">
         <v>29</v>
       </c>
@@ -1693,26 +2039,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:U36"/>
+  <dimension ref="A3:U164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K52" sqref="K52"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="14" max="14" width="16.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:21" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="21">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21">
       <c r="P4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21">
       <c r="O5" t="s">
         <v>31</v>
       </c>
@@ -1735,7 +2086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="P6">
         <v>1</v>
       </c>
@@ -1755,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="O7" t="s">
         <v>32</v>
       </c>
@@ -1769,7 +2120,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="P8">
         <v>0</v>
       </c>
@@ -1780,82 +2131,540 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="16:16" x14ac:dyDescent="0.2">
-      <c r="P32" s="1" t="s">
+    <row r="19" spans="15:16" ht="15.75" thickBot="1"/>
+    <row r="20" spans="15:16">
+      <c r="O20" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="15"/>
+    </row>
+    <row r="21" spans="15:16">
+      <c r="O21" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="15:16" ht="15.75" thickBot="1">
+      <c r="O22" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="15:21">
+      <c r="P39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O33" t="s">
+    <row r="40" spans="15:21">
+      <c r="O40" t="s">
         <v>31</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P40" t="s">
         <v>33</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="Q40" t="s">
         <v>34</v>
       </c>
-      <c r="R33" t="s">
+      <c r="R40" t="s">
         <v>35</v>
       </c>
-      <c r="S33" t="s">
+      <c r="S40" t="s">
         <v>36</v>
       </c>
-      <c r="T33" t="s">
+      <c r="T40" t="s">
         <v>37</v>
       </c>
-      <c r="U33" t="s">
+      <c r="U40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="P34">
-        <v>4</v>
-      </c>
-      <c r="Q34">
-        <v>4</v>
-      </c>
-      <c r="R34">
-        <v>4</v>
-      </c>
-      <c r="S34">
-        <v>4</v>
-      </c>
-      <c r="T34">
-        <v>4</v>
-      </c>
-      <c r="U34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="O35" t="s">
+    <row r="41" spans="15:21">
+      <c r="P41">
+        <v>4</v>
+      </c>
+      <c r="Q41">
+        <v>4</v>
+      </c>
+      <c r="R41">
+        <v>4</v>
+      </c>
+      <c r="S41">
+        <v>4</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="15:21">
+      <c r="O42" t="s">
         <v>32</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P42" t="s">
         <v>39</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="Q42" t="s">
         <v>40</v>
       </c>
-      <c r="R35" t="s">
+      <c r="R42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="15:21" x14ac:dyDescent="0.2">
-      <c r="P36">
+    <row r="43" spans="15:21">
+      <c r="P43">
         <v>1</v>
       </c>
-      <c r="Q36">
-        <v>4</v>
-      </c>
-      <c r="R36">
-        <v>4</v>
-      </c>
+      <c r="Q43">
+        <v>4</v>
+      </c>
+      <c r="R43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="21">
+      <c r="A69" s="6"/>
+      <c r="B69" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C100" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="N100" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O100" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+    </row>
+    <row r="101" spans="2:18">
+      <c r="B101" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C101" s="13">
+        <v>4</v>
+      </c>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="N101" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="O101" s="10">
+        <v>4</v>
+      </c>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+    </row>
+    <row r="102" spans="2:18">
+      <c r="B102" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="13">
+        <v>3</v>
+      </c>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="N102" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O102" s="10">
+        <v>4</v>
+      </c>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+    </row>
+    <row r="103" spans="2:18">
+      <c r="B103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C103" s="13">
+        <v>4</v>
+      </c>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="N103" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="O103" s="10">
+        <v>4</v>
+      </c>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+    </row>
+    <row r="104" spans="2:18">
+      <c r="B104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="12">
+        <v>0</v>
+      </c>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="N104" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="O104" s="12">
+        <v>1</v>
+      </c>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+    </row>
+    <row r="105" spans="2:18">
+      <c r="B105" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C105" s="12">
+        <v>4</v>
+      </c>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="N105" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="O105" s="12">
+        <v>2</v>
+      </c>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+    </row>
+    <row r="106" spans="2:18">
+      <c r="B106" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C106" s="12">
+        <v>0</v>
+      </c>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="N106" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O106" s="12">
+        <v>2</v>
+      </c>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+    </row>
+    <row r="107" spans="2:18">
+      <c r="B107" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C107" s="13">
+        <v>4</v>
+      </c>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="N107" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O107" s="10">
+        <v>4</v>
+      </c>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+    </row>
+    <row r="108" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="109" spans="2:18">
+      <c r="G109" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H109" s="21"/>
+      <c r="I109" s="21"/>
+      <c r="J109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="21"/>
+      <c r="M109" s="21"/>
+      <c r="N109" s="22"/>
+    </row>
+    <row r="110" spans="2:18">
+      <c r="G110" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="24"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="25"/>
+    </row>
+    <row r="111" spans="2:18">
+      <c r="G111" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H111" s="24"/>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="24"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="25"/>
+    </row>
+    <row r="112" spans="2:18">
+      <c r="G112" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H112" s="24"/>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="24"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="25"/>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" thickBot="1">
+      <c r="G113" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="H113" s="27"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="27"/>
+      <c r="M113" s="27"/>
+      <c r="N113" s="28"/>
+    </row>
+    <row r="119" spans="1:14" ht="21">
+      <c r="A119" s="6"/>
+      <c r="B119" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="2:18">
+      <c r="B152" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D152" s="10"/>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="N152" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O152" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="10"/>
+      <c r="R152" s="10"/>
+    </row>
+    <row r="153" spans="2:18">
+      <c r="B153" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C153" s="12">
+        <v>1</v>
+      </c>
+      <c r="D153" s="10"/>
+      <c r="E153" s="10"/>
+      <c r="F153" s="10"/>
+      <c r="N153" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="O153" s="10">
+        <v>4</v>
+      </c>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10"/>
+      <c r="R153" s="10"/>
+    </row>
+    <row r="154" spans="2:18">
+      <c r="B154" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C154" s="12">
+        <v>4</v>
+      </c>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
+      <c r="N154" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="O154" s="10">
+        <v>4</v>
+      </c>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+    </row>
+    <row r="155" spans="2:18">
+      <c r="B155" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="12">
+        <v>4</v>
+      </c>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="N155" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="O155" s="10">
+        <v>4</v>
+      </c>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+      <c r="R155" s="10"/>
+    </row>
+    <row r="156" spans="2:18">
+      <c r="B156" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C156" s="12">
+        <v>4</v>
+      </c>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="N156" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="O156" s="10">
+        <v>4</v>
+      </c>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+    </row>
+    <row r="157" spans="2:18">
+      <c r="B157" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C157" s="12">
+        <v>4</v>
+      </c>
+      <c r="D157" s="10"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="10"/>
+      <c r="N157" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O157" s="10">
+        <v>4</v>
+      </c>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+      <c r="R157" s="10"/>
+    </row>
+    <row r="158" spans="2:18">
+      <c r="B158" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C158" s="12">
+        <v>4</v>
+      </c>
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="N158" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O158" s="10">
+        <v>4</v>
+      </c>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10"/>
+      <c r="R158" s="10"/>
+    </row>
+    <row r="159" spans="2:18" ht="15.75" thickBot="1"/>
+    <row r="160" spans="2:18">
+      <c r="G160" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="H160" s="21"/>
+      <c r="I160" s="21"/>
+      <c r="J160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="21"/>
+      <c r="M160" s="21"/>
+      <c r="N160" s="22"/>
+    </row>
+    <row r="161" spans="7:14">
+      <c r="G161" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="25"/>
+    </row>
+    <row r="162" spans="7:14">
+      <c r="G162" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H162" s="24"/>
+      <c r="I162" s="24"/>
+      <c r="J162" s="24"/>
+      <c r="K162" s="24"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="24"/>
+      <c r="N162" s="25"/>
+    </row>
+    <row r="163" spans="7:14">
+      <c r="G163" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H163" s="24"/>
+      <c r="I163" s="24"/>
+      <c r="J163" s="24"/>
+      <c r="K163" s="24"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="24"/>
+      <c r="N163" s="25"/>
+    </row>
+    <row r="164" spans="7:14" ht="15.75" thickBot="1">
+      <c r="G164" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="27"/>
+      <c r="M164" s="27"/>
+      <c r="N164" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>